--- a/biology/Botanique/Rosier_Bourbon/Rosier_Bourbon.xlsx
+++ b/biology/Botanique/Rosier_Bourbon/Rosier_Bourbon.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F5"/>
+  <dimension ref="A1:H5"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -480,7 +490,9 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
         <is>
           <t xml:space="preserve">Les rosiers Bourbon, ou Rosa ×borboniana, sont des hybrides qui appartiennent au groupe des Roses anciennes.
 </t>
@@ -511,7 +523,9 @@
           <t>Origines</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
         <is>
           <t xml:space="preserve">Le nom de rosier Bourbon vient de celui de l'« île Bourbon », ancien nom de l'île de La Réunion, où des colons français avaient planté pour clôturer leurs champs et jardins des rosiers, surtout Rosa ×damascena 'Semperflorens' et Rosa ×chinensis 'Parson's Pink China' ou 'Old Blush', ce qui permit des croisements spontanés, et l'apparition d'un rosier hybride appelé localement le rosier 'Édouard'. En 1817, le botaniste Nicolas Bréon envoya des graines, en France, au chef jardinier du duc d'Orléans, Louis-Philippe II d'Orléans (le futur roi Louis-Philippe), Jacques, qui les sema et baptisa « rosiers de l'île Bourbon » ces nouveaux rosiers.
 </t>
@@ -542,11 +556,13 @@
           <t>Description</t>
         </is>
       </c>
-      <c r="F4" t="inlineStr">
+      <c r="F4" t="inlineStr"/>
+      <c r="G4" t="inlineStr"/>
+      <c r="H4" t="inlineStr">
         <is>
           <t xml:space="preserve">Les rosiers Bourbon ressemblent aux rosiers Portland, mais ils sont issus de croisements entre Rosa x damascena semperflorens et Rosa chinensis 'Old Blush' (les rosiers de Portland seraient issus de croisements entre Rosa x damascena semperflorens et Rosa gallica officinalis et les rosiers de Noisette de Rosa x damascena semperflorens et Rosa moschata). Les rosiers Bourbon ont de grandes fleurs très pleines, demi-doubles ou doubles, sphériques, en coupe ou aplatis. Ils fleurissent à partir de juin et atteignent une hauteur de 1,50 mètre environ.
 Les feuilles et les jeunes pousses présentent quelques similitudes avec les hybrides de thé apparus plus tard.
-Les rosiers Bourbon sont de deux types, ceux chez qui prédomine Rosa chinensis comme 'Émile Courtier', 'Louise Odier' ou 'Reine Victoria', et ceux qui tiennent plus de Rosa damascena comme 'Souvenir de la Malmaison'[2].
+Les rosiers Bourbon sont de deux types, ceux chez qui prédomine Rosa chinensis comme 'Émile Courtier', 'Louise Odier' ou 'Reine Victoria', et ceux qui tiennent plus de Rosa damascena comme 'Souvenir de la Malmaison'.
 </t>
         </is>
       </c>
@@ -575,7 +591,9 @@
           <t>Quelques cultivars célèbres[3]</t>
         </is>
       </c>
-      <c r="F5" t="inlineStr">
+      <c r="F5" t="inlineStr"/>
+      <c r="G5" t="inlineStr"/>
+      <c r="H5" t="inlineStr">
         <is>
           <t>Rosa ×bourbonia (Rosa ×damascena 'Semperflorens' × 'Old Blush') aux fleurs rose carmin foncé.
 'Adrienne de Cardoville' (Guillot père, 1864), rose tendre.
